--- a/c_payment_token.xlsx
+++ b/c_payment_token.xlsx
@@ -1,124 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>image_url</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>decimals</t>
-  </si>
-  <si>
-    <t>eth_price</t>
-  </si>
-  <si>
-    <t>usd_price</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>DAI</t>
-  </si>
-  <si>
-    <t>WETH</t>
-  </si>
-  <si>
-    <t>USDC</t>
-  </si>
-  <si>
-    <t>0x0000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>0x6b175474e89094c44da98b954eedeac495271d0f</t>
-  </si>
-  <si>
-    <t>0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
-  </si>
-  <si>
-    <t>0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
-  </si>
-  <si>
-    <t>https://storage.opensea.io/files/6f8e2979d428180222796ff4a33ab929.svg</t>
-  </si>
-  <si>
-    <t>https://storage.opensea.io/files/8ef8fb3fe707f693e57cdbfea130c24c.svg</t>
-  </si>
-  <si>
-    <t>https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg</t>
-  </si>
-  <si>
-    <t>https://storage.opensea.io/files/749015f009a66abcb3bbb3502ae2f1ce.svg</t>
-  </si>
-  <si>
-    <t>Ether</t>
-  </si>
-  <si>
-    <t>Dai Stablecoin</t>
-  </si>
-  <si>
-    <t>Wrapped Ether</t>
-  </si>
-  <si>
-    <t>USD Coin</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,41 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,162 +420,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>image_url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>decimals</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eth_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>usd_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>13689077</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x0000000000000000000000000000000000000000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://storage.opensea.io/files/6f8e2979d428180222796ff4a33ab929.svg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ether</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>18</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I2" t="n">
+        <v>2027.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12182941</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DAI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x6b175474e89094c44da98b954eedeac495271d0f</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://storage.opensea.io/files/8ef8fb3fe707f693e57cdbfea130c24c.svg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dai Stablecoin</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0004932109512559617</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="n">
+        <v>4645681</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WETH</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Wrapped Ether</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2027.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B5" t="n">
+        <v>4403908</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://storage.opensea.io/files/749015f009a66abcb3bbb3502ae2f1ce.svg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>USD Coin</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13689077</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2013.97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>12182941</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>0.000496531725894626</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4645681</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2013.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4403908</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>0.0005014970431535722</v>
-      </c>
-      <c r="I5">
-        <v>1.01</v>
+      <c r="H5" t="n">
+        <v>0.0004930851824633914</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.999745</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/c_payment_token.xlsx
+++ b/c_payment_token.xlsx
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>2027.53</v>
+        <v>2064.03</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +543,7 @@
         <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004932109512559617</v>
+        <v>0.0004844890820385362</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2027.53</v>
+        <v>2064.03</v>
       </c>
     </row>
     <row r="5">
@@ -617,10 +617,10 @@
         <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0004930851824633914</v>
+        <v>0.0004842700929734548</v>
       </c>
       <c r="I5" t="n">
-        <v>0.999745</v>
+        <v>0.999548</v>
       </c>
     </row>
   </sheetData>
